--- a/Results/TCGA/SpliceJunction/NormalizedExpression/TCGA.CBL.MUT.xlsx
+++ b/Results/TCGA/SpliceJunction/NormalizedExpression/TCGA.CBL.MUT.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t xml:space="preserve">Gene</t>
   </si>
@@ -114,21 +114,6 @@
   </si>
   <si>
     <t xml:space="preserve">LOH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chr11,119278164,A,T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENST00000264033.4:c.1096-2A&gt;T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TCGA-AB-2956</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TCGA-AB-2956-03A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Not DNA Called</t>
   </si>
 </sst>
 </file>
@@ -602,77 +587,6 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H3" t="s">
-        <v>37</v>
-      </c>
-      <c r="I3" t="s">
-        <v>38</v>
-      </c>
-      <c r="J3" t="s">
-        <v>38</v>
-      </c>
-      <c r="K3" t="s">
-        <v>38</v>
-      </c>
-      <c r="L3" t="s">
-        <v>38</v>
-      </c>
-      <c r="M3" t="s">
-        <v>31</v>
-      </c>
-      <c r="N3" t="n">
-        <v>2.63157894736842</v>
-      </c>
-      <c r="O3" t="n">
-        <v>8.94736842105263</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0.657894736842105</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0.87719298245614</v>
-      </c>
-      <c r="R3" t="s">
-        <v>38</v>
-      </c>
-      <c r="S3" t="s">
-        <v>38</v>
-      </c>
-      <c r="T3" t="s">
-        <v>38</v>
-      </c>
-      <c r="U3" t="s">
-        <v>38</v>
-      </c>
-      <c r="V3" t="s">
-        <v>31</v>
-      </c>
-      <c r="W3" t="s">
-        <v>31</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
